--- a/DateBase/orders/Dang Nguyen_2025-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-5.xlsx
@@ -520,6 +520,9 @@
       <c r="C11" t="str">
         <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F11" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -581,7 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>053515153515510200</v>
+        <v>0535151535155102015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,9 +524,90 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F16" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>4</v>
+      </c>
+      <c r="C18" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +665,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0535151535155102015</v>
+        <v>0535151535155102015151517320510929</v>
       </c>
     </row>
   </sheetData>
